--- a/biology/Biologie cellulaire et moléculaire/NEU1/NEU1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/NEU1/NEU1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La neuraminidase 1, ou NEU1 est l'une des quatre neuraminidases chez le mammifère (dont l'être humain). Son gène est NEUM1 situé sur le chromosome 6 humain.
 </t>
@@ -511,13 +523,15 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il libère des résidus d'acide sialique des glycoprotéines ou des glycolipides, modifiant ainsi la fonction de ces derniers.
-Il se fixe sur certains récepteurs de type Toll permettant l'activation de ces derniers[5].
-Il permet d'augmenter la sensibilité de l'IRK à l'insuline qui s'y fixe [6].
-Il facilite la phagocytose des macrophages et des cellules dendritiques[7]. Il désactive les récepteurs au PDGF et à l'IGF-2[8].
-Dans les poumons, il interagit avec le récepteur de l'EGF et le MUC1[9].
+Il se fixe sur certains récepteurs de type Toll permettant l'activation de ces derniers.
+Il permet d'augmenter la sensibilité de l'IRK à l'insuline qui s'y fixe .
+Il facilite la phagocytose des macrophages et des cellules dendritiques. Il désactive les récepteurs au PDGF et à l'IGF-2.
+Dans les poumons, il interagit avec le récepteur de l'EGF et le MUC1.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il facilite la formation de l'athérome en favorisant l'inflammation[10]. Il contribue à l'hypertrophie ventriculaire gauche en cas d'augmentation de la pression artérielle[11].
-Une mutation de son gène cause une sialidose, une maladie lysosomale[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il facilite la formation de l'athérome en favorisant l'inflammation. Il contribue à l'hypertrophie ventriculaire gauche en cas d'augmentation de la pression artérielle.
+Une mutation de son gène cause une sialidose, une maladie lysosomale.
 </t>
         </is>
       </c>
